--- a/databases/ATA-72_Engine_fan_prop.xlsx
+++ b/databases/ATA-72_Engine_fan_prop.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alicia\Work\Git\brightway\databases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9641C0F-EFAA-43F4-A663-37C4A7CB18A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATA-72_Engine_fan_prop" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -202,9 +208,6 @@
     <t>Al 2024</t>
   </si>
   <si>
-    <t>production database</t>
-  </si>
-  <si>
     <t>kilogram</t>
   </si>
   <si>
@@ -314,13 +317,16 @@
   </si>
   <si>
     <t>e77dc1be783f4a8ea18371d8765913d9</t>
+  </si>
+  <si>
+    <t>materials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +372,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -412,7 +426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,9 +458,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,6 +510,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -653,19 +703,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -673,7 +729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -681,7 +737,7 @@
         <v>3981.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -689,7 +745,7 @@
         <v>4259.7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -697,7 +753,7 @@
         <v>373.71</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -705,7 +761,7 @@
         <v>433.48</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -713,15 +769,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>19.022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>19.021999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -729,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -737,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -745,7 +801,7 @@
         <v>271.31</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -753,23 +809,23 @@
         <v>366.27</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>891.5700000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>891.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>8.610799999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>8.6107999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -777,7 +833,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -785,7 +841,7 @@
         <v>853.21</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -793,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -801,7 +857,7 @@
         <v>404.57</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -809,7 +865,7 @@
         <v>58.189</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -817,7 +873,7 @@
         <v>3003.4</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -825,15 +881,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>66.91800000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>66.918000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -841,7 +897,7 @@
         <v>163.1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -849,15 +905,15 @@
         <v>330.69</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>15.591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>15.590999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -865,15 +921,15 @@
         <v>342.72</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>718.1799999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>718.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -881,15 +937,15 @@
         <v>913.24</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>274.53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>274.52999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -897,7 +953,7 @@
         <v>715.08</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -905,7 +961,7 @@
         <v>875.78</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -913,7 +969,7 @@
         <v>181.45</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -921,7 +977,7 @@
         <v>5074.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -929,7 +985,7 @@
         <v>2710.2</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -937,15 +993,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
-        <v>398.9865</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>398.98649999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -953,7 +1009,7 @@
         <v>2311.2001</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -961,7 +1017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -969,7 +1025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -977,7 +1033,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -985,7 +1041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -993,7 +1049,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1001,7 +1057,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1009,7 +1065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1017,7 +1073,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -1025,7 +1081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -1056,12 +1112,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -1090,7 +1146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -1113,24 +1169,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55">
-        <v>274.53</v>
+        <v>274.52999999999997</v>
       </c>
       <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" t="s">
         <v>62</v>
       </c>
-      <c r="D55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>63</v>
-      </c>
-      <c r="F55" t="s">
-        <v>64</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
@@ -1142,23 +1198,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -1166,15 +1222,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -1182,7 +1238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -1190,12 +1246,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -1218,9 +1274,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1238,10 +1294,10 @@
         <v>60</v>
       </c>
       <c r="G65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -1258,15 +1314,15 @@
         <v>52</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1281,15 +1337,15 @@
         <v>52</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>70</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1304,15 +1360,15 @@
         <v>52</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>72</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1327,29 +1383,29 @@
         <v>52</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>46</v>
       </c>
@@ -1357,15 +1413,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>50</v>
       </c>
@@ -1373,7 +1429,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -1381,15 +1437,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -1406,26 +1462,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E79" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -1454,9 +1510,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -1474,10 +1530,10 @@
         <v>60</v>
       </c>
       <c r="I83" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>61</v>
       </c>
@@ -1485,19 +1541,19 @@
         <v>357.54</v>
       </c>
       <c r="C84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84" t="s">
         <v>62</v>
       </c>
-      <c r="D84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>63</v>
       </c>
-      <c r="F84" t="s">
-        <v>64</v>
-      </c>
       <c r="G84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H84">
         <v>0.5</v>
@@ -1506,52 +1562,52 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B85">
         <v>357.54</v>
       </c>
       <c r="C85" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" t="s">
         <v>62</v>
       </c>
-      <c r="D85" t="s">
-        <v>47</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>63</v>
       </c>
-      <c r="F85" t="s">
-        <v>64</v>
-      </c>
       <c r="G85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H85">
         <v>0.5</v>
       </c>
       <c r="I85" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>46</v>
       </c>
@@ -1559,15 +1615,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>50</v>
       </c>
@@ -1575,7 +1631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>52</v>
       </c>
@@ -1583,15 +1639,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -1608,26 +1664,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E95" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -1656,9 +1712,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1676,10 +1732,10 @@
         <v>60</v>
       </c>
       <c r="I99" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -1687,19 +1743,19 @@
         <v>425.97</v>
       </c>
       <c r="C100" t="s">
+        <v>99</v>
+      </c>
+      <c r="D100" t="s">
+        <v>47</v>
+      </c>
+      <c r="E100" t="s">
         <v>62</v>
       </c>
-      <c r="D100" t="s">
-        <v>47</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>63</v>
       </c>
-      <c r="F100" t="s">
-        <v>64</v>
-      </c>
       <c r="G100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H100">
         <v>0.1</v>
@@ -1708,139 +1764,139 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>82</v>
+      </c>
+      <c r="B101">
+        <v>212.98500000000001</v>
+      </c>
+      <c r="C101" t="s">
+        <v>99</v>
+      </c>
+      <c r="D101" t="s">
+        <v>47</v>
+      </c>
+      <c r="E101" t="s">
+        <v>62</v>
+      </c>
+      <c r="F101" t="s">
+        <v>63</v>
+      </c>
+      <c r="G101" t="s">
         <v>83</v>
-      </c>
-      <c r="B101">
-        <v>212.985</v>
-      </c>
-      <c r="C101" t="s">
-        <v>62</v>
-      </c>
-      <c r="D101" t="s">
-        <v>47</v>
-      </c>
-      <c r="E101" t="s">
-        <v>63</v>
-      </c>
-      <c r="F101" t="s">
-        <v>64</v>
-      </c>
-      <c r="G101" t="s">
-        <v>84</v>
       </c>
       <c r="H101">
         <v>0.05</v>
       </c>
       <c r="I101" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B102">
         <v>425.97</v>
       </c>
       <c r="C102" t="s">
+        <v>99</v>
+      </c>
+      <c r="D102" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" t="s">
         <v>62</v>
       </c>
-      <c r="D102" t="s">
-        <v>47</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>63</v>
       </c>
-      <c r="F102" t="s">
-        <v>64</v>
-      </c>
       <c r="G102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H102">
         <v>0.1</v>
       </c>
       <c r="I102" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" t="s">
-        <v>86</v>
       </c>
       <c r="B103">
         <v>2129.85</v>
       </c>
       <c r="C103" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" t="s">
         <v>62</v>
       </c>
-      <c r="D103" t="s">
-        <v>47</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>63</v>
       </c>
-      <c r="F103" t="s">
-        <v>64</v>
-      </c>
       <c r="G103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H103">
         <v>0.5</v>
       </c>
       <c r="I103" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B104">
         <v>1064.925</v>
       </c>
       <c r="C104" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" t="s">
         <v>62</v>
       </c>
-      <c r="D104" t="s">
-        <v>47</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>63</v>
       </c>
-      <c r="F104" t="s">
-        <v>64</v>
-      </c>
       <c r="G104" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H104">
         <v>0.25</v>
       </c>
       <c r="I104" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>44</v>
       </c>
       <c r="B107" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>46</v>
       </c>
@@ -1848,15 +1904,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>48</v>
       </c>
       <c r="B109" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>50</v>
       </c>
@@ -1864,7 +1920,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -1872,15 +1928,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -1897,26 +1953,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E114" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -1945,9 +2001,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1965,27 +2021,27 @@
         <v>60</v>
       </c>
       <c r="I118" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B119">
         <v>373.71</v>
       </c>
       <c r="C119" t="s">
+        <v>99</v>
+      </c>
+      <c r="D119" t="s">
+        <v>47</v>
+      </c>
+      <c r="E119" t="s">
         <v>62</v>
       </c>
-      <c r="D119" t="s">
-        <v>47</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>63</v>
-      </c>
-      <c r="F119" t="s">
-        <v>64</v>
       </c>
       <c r="G119" t="s">
         <v>5</v>
@@ -1994,26 +2050,26 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>46</v>
       </c>
@@ -2021,15 +2077,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>48</v>
       </c>
       <c r="B124" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>50</v>
       </c>
@@ -2037,7 +2093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>52</v>
       </c>
@@ -2045,15 +2101,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -2070,26 +2126,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E129" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -2118,9 +2174,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -2138,27 +2194,27 @@
         <v>60</v>
       </c>
       <c r="I133" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134" t="s">
+        <v>99</v>
+      </c>
+      <c r="D134" t="s">
+        <v>47</v>
+      </c>
+      <c r="E134" t="s">
         <v>62</v>
       </c>
-      <c r="D134" t="s">
-        <v>47</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>63</v>
-      </c>
-      <c r="F134" t="s">
-        <v>64</v>
       </c>
       <c r="G134" t="s">
         <v>35</v>
@@ -2167,26 +2223,26 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>44</v>
       </c>
       <c r="B137" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>46</v>
       </c>
@@ -2194,15 +2250,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>48</v>
       </c>
       <c r="B139" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>50</v>
       </c>
@@ -2210,7 +2266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>52</v>
       </c>
@@ -2218,12 +2274,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1</v>
       </c>
@@ -2246,9 +2302,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -2266,12 +2322,12 @@
         <v>60</v>
       </c>
       <c r="G144" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -2286,13 +2342,14 @@
         <v>52</v>
       </c>
       <c r="F145" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G145" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>